--- a/3.b.TF-IDF/splitTF-IDFCluster/cluster_4.xlsx
+++ b/3.b.TF-IDF/splitTF-IDFCluster/cluster_4.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="cluster_4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="cluster_4_WF" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1732,4 +1733,4205 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B418"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>添加</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>成员</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>系统</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>超过</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>选择</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>限制</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>提示</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>创建</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>群组</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>群</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>人数</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>没有</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>群聊</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>一次</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>数据</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>好友</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>上限</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>软件</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>请求</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>明确</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>过程</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>告知</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>继续</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>错误</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>按钮</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>设计</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>确定</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>联系人</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>勾选</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>超出</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>确认</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>并未</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>出现</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>完成</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>无法</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>界面</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>预期</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>提供</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>只能</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>人时</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>人员</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>达到</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>试图</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>困惑</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>提示信息</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>输入</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>更</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>允许</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>反馈</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>设置</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>给出</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>页面</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>正确</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>发起</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>新建</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>警告</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>不符</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>建议</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>进行</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>立即</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>未</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>知道</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>组成员</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>修改</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>进入</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>明显</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>填写</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>具体</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>应该</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>感到</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>不能</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>大量</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>用户界面</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>一次性</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>情况</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>新</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>最大</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>时才</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>执行</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>消息</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>返回</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>处理</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>之后</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>最后</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>重新</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>出</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>不必要</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>名</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>邀请</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>困扰</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>及时</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>性能</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>发现</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>不便</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>缺陷</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>阻止</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>需求</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>相反</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>提醒</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>括号</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>理解</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>设定</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>带来</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>表明</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>用户数量</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>交互</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>错误信息</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>当勾选</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>不知情</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>违反</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>应</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>挫败</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>失败</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>下降</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>一致</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>遇到</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>提高</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>混淆</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>给予</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>仍然</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>不可</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>选中</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>默认</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>反应</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>这一</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>位</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>麻烦</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>不佳</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>之前</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>必须</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>负面影响</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>管理</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>未能</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>建群</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>增加</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>避免</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>准确</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>朋友</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>要求</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>选项</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>实际上</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>实际操作</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>说明</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>收到</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>行为</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>加入</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>灰</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>期望</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>是否</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>加群</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>准备</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>超限</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>关键性</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>多个</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>更新</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>阶段</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>个群</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>不会</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>相应</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>确切</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>产生</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>感</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>提交</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>造成</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>界面显示</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>列表</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>指导</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>能力</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>数值</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>清晰</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>指示</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>被加</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>逻辑</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>二十个</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>任务</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>原因</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>相关</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>添二</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>指出</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>人后</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>规定</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>勾选栏</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>做</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>当前</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>变更</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>发生</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>满意度</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>自动</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>第一次</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>置</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>不够</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>限定</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>进一步</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>误解</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>变为</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>头像</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>显然</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>底部</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>意识</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>群才</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>效率</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>一步</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>特别</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>潜在</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>超载</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>阻碍</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>图</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>收回</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>所示</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>旁边</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>候选</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>触控</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>内容</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>键盘</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>全选</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>方面</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>拉入</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>群主</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>图片</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>繁琐</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>打开</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>窗口</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>表示</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>多于</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>浪费时间</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>前</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>禁止</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>防止</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>白费</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>功夫</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>节省</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>具体来说</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>形式</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>采取</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>行动</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>到底</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>误操作</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>即时</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>查找</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>匹配</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>存储</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>提前</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>超出范围</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>后续</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>下方</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>停止</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>违背</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>禁用</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>或置</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>完群</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>群名</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>为空</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>接收</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>作废</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>关键字</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>变得</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>每个</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>简单</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>单独</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>建立</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>失望</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>适当</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>多达</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>软件设计</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>调整</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>几个</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>突然</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>误导</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>负面</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>不满</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>突如其来</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>欺骗</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>提升</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>开发者</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>分批</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>一刻</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>直观</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>非法</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>前提条件</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>复现</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>数抄错</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>跳转</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>用户数</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>不必</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>第二步</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>文档</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>希望</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>当到</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>成</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>受限制</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>群里</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>随意</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>以此</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>目前</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>实现</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>严重</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>加剧</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>上述</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>运作</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>稍后</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>重置</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>现象</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>重复</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>不合理</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>团队</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>原则</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>查看</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>看出</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>响应</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>延迟</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>反映</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>原本</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>稳定性</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>最大值</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>大于</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>不利于</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>难以</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>沮丧</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>验证</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>完</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>闪退</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>面板</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>勾选框</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>真的</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>不断</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>猜测</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>找出</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>意味着</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>告诉</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>满足用户</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>超标</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>多次</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>情况严重</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>对系统</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>弹窗</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>再要</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>前面</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>会弹</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>成员数</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>导致系统</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>误以为</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>无意</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>瓶颈</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>资源分配</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>并发</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>其后</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>端</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>服务</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>数据库</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>配置</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>不足以</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>支持</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>说</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>bug</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>弹</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>改为</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>指引</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>清楚</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>单个</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>总</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>开发商</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>更好</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>问题所在</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>发出</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>产生误解</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>程序</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>数</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>降低</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>昵称</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>包含</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>较多群</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>测试步骤</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>app</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>图标</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>以下</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>所选</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>重现</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>手机号</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>根据上述</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>度</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>具体表现</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>条</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>细节</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>具体位置</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>欲</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>进</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>每次</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>最多</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>仅弹</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>了解</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>耗时</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/3.b.TF-IDF/splitTF-IDFCluster/cluster_4.xlsx
+++ b/3.b.TF-IDF/splitTF-IDFCluster/cluster_4.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,234 +437,371 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>severity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recurrent</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>result</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>processed_result</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>10010000008800</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>群里添加群成员不需要对方验证</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>群里 添加 群 成员 验证</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>10010000008985</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>不正常退出</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>任务添二创建群，被加添加成员一次最多 20 个人，群组成员上限 500 个人，但是在添加人时，当勾选了某个用户，则该用户头像出现在底部勾选栏
 ，确定（确认）：未选择人员，确定按钮置灰，勾选人员后，则变更为确认并且为可点击
 状态，括号中显示已勾选人数，人数超过上限无提示，括号只显示人数，到用户创建群才提示。添加完好友后，不正常闪退</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>任务 添二 创建 群 被加 添加 成员 一次   20   个人 群 组成员 上限   500   个人 添加 人时 当勾选 头像 出现 底部 勾选栏 
  确定 确认 未 选择 人员 确定 按钮 置 灰 勾选 人员 变更 确认 点击 
  状态 括号 勾选 人数 人数 超过 上限 提示 括号 人数 创建 群才 提示 添加 完 好友 正常 闪退</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>不正常退出</t>
-        </is>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>10010000009054</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>任务添二创建群，被加添加成员一次最多 20 个人，群组成员上限 500 个人，但是在添加人时，当勾选了某个用户，则该用户头像出现在底部勾选栏
 ，确定（确认）：未选择人员，确定按钮置灰，勾选人员后，则变更为确认并且为可点击
 状态，括号中显示已勾选人数，人数超过上限无提示，括号只显示人数，到用户创建群才提示。</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>任务 添二 创建 群 被加 添加 成员 一次   20   个人 群 组成员 上限   500   个人 添加 人时 当勾选 头像 出现 底部 勾选栏 
  确定 确认 未 选择 人员 确定 按钮 置 灰 勾选 人员 变更 确认 点击 
  状态 括号 勾选 人数 人数 超过 上限 提示 括号 人数 创建 群才 提示</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>用户体验</t>
-        </is>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>10010000008583</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>在朋友面板中，当尝试通过群聊设置添加20人以上的成员时，系统并未提供相应的选项。尽管界面上显示了勾选框和人数限制，实际上用户无法执行此操作。</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>朋友 面板 群聊 设置 添加 20 成员 系统 并未 提供 相应 选项 界面 勾选框 人数 限制 实际上 无法 执行</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10010000008116</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>该软件界面显示了一个系统提示，告知用户他们的数据使用已超过某个限制。然而，这个提示并没有明确说明具体的数据上限是多少，导致用户无法准确知道他们是否真的超过了限制。此外，由于没有明确的上限信息，用户可能需要不断地尝试或猜测来找出确切的数值。这种不清晰的指示可能会导致用户的困惑和不便。</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>界面显示 系统 提示 告知 数据 超过 限制 提示 没有 明确 说明 具体 数据 上限 无法 准确 知道 是否 真的 超过 限制 没有 明确 上限 信息 不断 猜测 找出 确切 数值 清晰 指示 困惑 不便</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10010000008185</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>在测试过程中，发现一个与预期不符的行为。根据需求，当尝试一次添加超过20个好友到群聊时，系统应该显示错误提示。但在实际操作中，系统并未在添加第21个好友时给出错误提示，而是在提交群信息时才提示请求失败。此行为与需求描述不符，可能是由于软件的bug或设计缺陷导致的。</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>过程 发现 预期 不符 行为 需求 一次 添加 超过 20 好友 群聊 系统 应该 错误 提示 实际操作 系统 并未 添加 21 好友 给出 错误 提示 提交 群 信息 时才 提示 请求 失败 行为 需求 不符 软件 设计 缺陷</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10010000009028</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>该软件在用户试图一次性添加超过20个群组成员时出现了一个bug。即使用户已经选择了30多个成员，软件仍然允许他们继续选择其他成员，同时“确定”按钮被设置为不可点击状态。这意味着用户无法完成他们的操作，这可能会导致用户感到困惑和沮丧。</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>试图 一次性 添加 超过 20 个群 组成员 出现 选择 30 多个 成员 软件 仍然 允许 继续 选择 成员 确定 按钮 设置 不可 点击 状态 意味着 无法 完成 感到 困惑 沮丧</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10010000008335</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>该软件在创建群组的过程中存在一个用户界面的bug。当用户试图将超过20名成员添加到新群组时，软件允许他们继续进行此操作，即使已经超出了最大成员限制。然而，直到用户进入最后一步并尝试完成创建过程时，系统才显示一个错误消息，提示“请求的数据超出系统限制”。这个错误消息要求用户返回到添加成员的步骤并重新开始创建过程。这导致了不必要的用户交互和潜在的数据超载问题。</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>创建 群组 过程 用户界面 试图 超过 20 名 成员 添加 新 群组 软件 允许 继续 进行 超出 最大 成员 限制 进入 最后 一步 完成 创建 过程 系统 错误 消息 提示 请求 数据 超出 系统 限制 错误 消息 要求 返回 添加 成员 重新 创建 过程 不必要 交互 潜在 数据 超载</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10010000008437</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>这个bug的问题在于，根据系统当前的成员上限（2人），用户尝试添加198名成员时，系统提示“请求超过系统限制”，导致添加失败。这与需求中要求的群成员上限500人不符，实际上系统无法满足用户的添加请求。</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>系统 当前 成员 上限 添加 198 名 成员 系统 提示 请求 超过 系统 限制 添加 失败 需求 要求 群 成员 上限 500 不符 实际上 系统 无法 满足用户 添加 请求</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10010000009240</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>添加群聊时，正常一次只能添加20个人，但选择添加人数却可以超过20个人。</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>添加 群聊 正常 一次 只能 添加 20 个人 选择 添加 人数 超过 20 个人</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10010000009464</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>在创建群选择群成员的过程中，选择的群成员超过了20人之后，没有相关的提示信息。</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>创建 群 选择 群 成员 过程 选择 群 成员 超过 20 之后 没有 相关 提示信息</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10010000008890</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>在创建群聊的功能中，系统允许一次性添加超过20人，这与系统设定的上限不符。用户在尝试添加人数时，并未收到任何关于人数限制的提示，这导致在实际创建群聊时才出现人数超标的问题。由于没有及时的提示信息，用户可能会在不知情的情况下多次尝试添加人员，直到达到系统的限制。这种情况严重影响了用户的使用体验，可能会导致用户对系统的满意度下降。</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>创建 群聊 系统 允许 一次性 添加 超过 20 系统 设定 上限 不符 添加 人数 并未 收到 人数 限制 提示 创建 群聊 时才 出现 人数 超标 没有 及时 提示信息 不知情 情况 多次 添加 人员 达到 系统 限制 情况严重 对系统 满意度 下降</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10010000009349</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>（1）发起群聊，选择好友
 （2）期望结果：不能一次添加20人
@@ -672,7 +809,7 @@
 在用户选择好友时，超过20人就应该不能再选择，使设置明确,避免了用户再要返回前面的页面重新选择.</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>发起 群聊 选择 好友 
  期望 不能 一次 添加 20 
@@ -680,286 +817,439 @@
  选择 好友 超过 20 应该 不能 选择 设置 明确 , 避免 再要 返回 前面 页面 重新 选择 .</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>10010000007940</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>在登录并发起群聊后，当用户添加了20个人到群聊中。在尝试继续添加其他成员时，发现有些成员已经被自动选中并添加到群聊中，但并未默认勾选。与此同时，有些成员则被正确勾选。这导致了群聊添加成员的界面出现了不一致和不准确的反应，可能影响了用户的正常使用体验。</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>登录 发起 群聊 添加 20 个人 群聊 继续 添加 成员 发现 成员 自动 选中 添加 群聊 并未 默认 勾选 成员 正确 勾选 群聊 添加 成员 界面 出现 一致 准确 反应 正常</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10010000008742</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>该软件在用户界面的设计上存在明显的缺陷。在选择联系人功能中，系统规定一次最多只能添加20个人，但界面上并没有明确地提示这一限制条件。用户在实际操作过程中，可以勾选超过20人，并且点击确定按钮后，系统会弹出一个消息提示“您请求的数据超过系统限制”。这个提示虽然指出了错误，但是并没有明确告诉用户一次添加用户人数的上限是多少，导致用户难以理解具体的错误原因。这种设计不利于用户正确、有效地使用软件，可能会给用户带来不必要的困扰和误解。</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>用户界面 设计 明显 缺陷 选择 联系人 系统 规定 一次 只能 添加 20 个人 界面 没有 明确 提示 这一 限制 实际操作 过程 勾选 超过 20 点击 确定 按钮 系统 会弹 出 消息 提示 请求 数据 超过 系统 限制 提示 指出 错误 没有 明确 告诉 一次 添加 人数 上限 难以 理解 具体 错误 原因 设计 不利于 正确 有效 软件 带来 不必要 困扰 误解</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>10010000008714</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>该软件在用户尝试添加群组成员时，没有提供明确的提示信息告知用户已达到最大邀请用户数量限制。特别是在用户选择超过20位成员后，按钮应自动变为不可用状态，但目前软件中并未实现这一功能。这可能导致用户在不知情的情况下继续操作，直到他们意识到无法添加更多成员为止，给用户带来了不便和困扰。</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>添加 群 组成员 没有 提供 明确 提示信息 告知 达到 最大 邀请 用户数量 限制 特别 选择 超过 20 位 成员 按钮 应 自动 变为 不可 状态 目前 软件 并未 实现 这一 不知情 情况 继续 意识 无法 添加 更 成员 带来 不便 困扰</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>10010000008146</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>该软件在用户创建群组并选择成员时存在严重的功能缺陷。首先，系统没有限制在选择群组成员时一次可以添加的人数，导致用户可以一次选择超过20个成员，这与软件的功能需求说明不符。其次，当用户选择的成员数量达到499人时，系统才提示用户最多只能选择30个成员，这进一步加剧了上述问题。这些缺陷可能导致用户体验不佳，甚至可能影响群组的正常运作。</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>创建 群组 选择 成员 严重 缺陷 系统 没有 限制 选择 群 组成员 一次 添加 人数 一次 选择 超过 20 成员 软件 需求 说明 不符 选择 成员 数量 达到 499 人时 系统 提示 只能 选择 30 成员 进一步 加剧 上述 缺陷 不佳 群组 正常 运作</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>10010000008330</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>问题描述：在创建群组的过程中，当用户完成选择成员和填写群信息后，如果用户选择返回并稍后继续操作添加更多成员，发现之前输入的群信息已被重置，导致用户需要重新输入。此现象可能导致用户体验下降，因为他们必须重复之前的操作来更新他们的群信息。</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>创建 群组 过程 完成 选择 成员 填写 群 信息 选择 返回 稍后 继续 添加 更 成员 发现 之前 输入 群 信息 重置 重新 输入 现象 下降 必须 重复 之前 更新 群 信息</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>10010000009627</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>该软件在选择成员时存在一个不合理的界面反馈问题。当用户试图添加超过20个成员，并且选择的人数达到或超过这个限制时，系统并没有立即给出提示，而是等到用户尝试完成创建操作时才显示“一次最多选择20人”的提示信息。这种设计导致用户在不知情的情况下可能会因为超出限制而无法成功创建团队或群组，从而产生不必要的挫败感和困扰。</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>选择 成员 不合理 界面 反馈 试图 添加 超过 20 成员 选择 人数 达到 超过 限制 系统 没有 立即 给出 提示 完成 创建 时才 一次 选择 20 提示信息 设计 不知情 情况 超出 限制 无法 成功 创建 团队 群组 产生 不必要 挫败 感 困扰</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10010000008045</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>该软件在添加成员的功能上存在缺陷。当试图向一个群组中添加超过20个成员时，尽管系统显示了“添加成员”的选项并且可以继续点击，但实际上并没有成功添加更多的成员。这违反了软件的设计原则和预期功能，可能导致用户无法正确管理他们的群组或联系人列表。</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>添加 成员 缺陷 试图 群组 添加 超过 20 成员 系统 添加 成员 选项 继续 点击 实际上 没有 成功 添加 更 成员 违反 软件 设计 原则 预期 无法 正确 管理 群组 联系人 列表</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>10010000009204</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="C22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>在群组设置的添加成员功能中，当尝试添加的成员数量超过20人时，软件并未提供任何关于已超过上限或无法继续添加的提示。用户只有在点击确定按钮后才能收到相关的提示信息。</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>群组 设置 添加 成员 添加 成员 数量 超过 20 人时 软件 并未 提供 超过 上限 无法 继续 添加 提示 点击 确定 按钮 收到 相关 提示信息</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10010000009055</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>该软件在执行“新建群-添加成员”的操作时，当尝试一次添加21个成员时出现了问题。尽管系统显示了成功创建群组的消息，但在查看群组成员列表时，可以明显看出系统的响应延迟和性能下降。用户界面似乎没有正确地更新以反映新添加的成员，而且系统处理大量数据的能力似乎受到了限制，这导致用户体验下降。</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>执行 新建 群 - 添加 成员 一次 添加 21 成员 出现 系统 成功 创建 群组 消息 查看 群 组成员 列表 明显 看出 系统 响应 延迟 性能 下降 用户界面 没有 正确 更新 反映 新 添加 成员 系统 处理 大量 数据 能力 限制 下降</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>10010000008451</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="C24" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>该软件在设计上存在一个明显的功能错误，即添加成员的功能限制不明确。根据问题描述，软件原本的设计是一次最多只能添加20个成员。然而，在实际使用中，用户发现可以添加超过这个数量的成员。这种不一致可能导致软件在处理大量数据时出现问题，影响其性能和稳定性。</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>设计 明显 错误 添加 成员 限制 明确 软件 原本 设计 一次 只能 添加 20 成员 发现 添加 超过 数量 成员 一致 软件 处理 大量 数据 出现 性能 稳定性</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10010000008268</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>发起群聊，添加成员，当添加成员超过20人时，没有直接提醒添加人员已经达到上限。</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>发起 群聊 添加 成员 添加 成员 超过 20 人时 没有 提醒 添加 人员 达到 上限</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>10010000008361</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>在软件界面中，用户试图一次性添加超过20个好友到新建的群聊时，系统并未给出任何提示或限制，导致用户可以无限制地继续添加好友。当用户选择并确认添加后，系统才显示创建失败的信息，表明添加的数量已超过允许的最大值。这种设计违反了预期的用户交互逻辑，可能会导致用户困惑和操作不便。</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>软件 界面 试图 一次性 添加 超过 20 好友 新建 群聊 系统 并未 给出 提示 限制 限制 继续 添加 好友 选择 确认 添加 系统 创建 失败 信息 表明 添加 数量 超过 允许 最大值 设计 违反 预期 交互 逻辑 困惑 不便</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>10010000008369</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="C27" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5</v>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>新建群，添加成员时可以勾选第21位成员，</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>新建 群 添加 成员 勾选 21 位 成员</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>10010000008545</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="C28" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>该软件在新建群组并选择超过20个联系人后，点击确定按钮时并未出现预期的数量限制提示信息。相反，用户直接进入到了群信息填写页面，这与预期的操作流程和数量限制提示不符。</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>新建 群组 选择 超过 20 联系人 点击 确定 按钮 并未 出现 预期 数量 限制 提示信息 相反 进入 群 信息 填写 页面 预期 数量 限制 提示 不符</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>10010000008579</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="C29" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>这个bug的描述如下：在尝试通过搜索并选择群聊成员来创建群聊的过程中，系统未能按预期阻止用户选择超过20个成员。尽管系统提示了“已选中成员大于20时不能再选中”的信息，但用户仍然可以继续添加更多的成员，这违反了系统的预期行为。</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>搜索 选择 群聊 成员 创建 群聊 过程 系统 未能 预期 阻止 选择 超过 20 成员 系统 提示 选中 成员 大于 20 不能 选中 信息 仍然 继续 添加 更 成员 违反 系统 预期 行为</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>10010000008681</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="C30" t="n">
+        <v>4</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>该软件在尝试创建群组时出现了一个bug。预期中，当用户选择的成员数超过20个时，系统应阻止用户继续添加成员并使确认按钮不可点击，以此提示用户已达到最大成员限制。但在实际测试中，即使选择了超过20个成员，用户仍可继续添加成员并点击确认按钮，导致系统未给出任何提示就进入了创建群组的页面。这可能导致了数据超载和系统性能问题，因为用户可能会无意中创建一个包含大量成员的群组，这可能超出了系统的处理能力。</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>创建 群组 出现 预期 选择 成员数 超过 20 系统 应 阻止 继续 添加 成员 确认 按钮 不可 点击 以此 提示 达到 最大 成员 限制 选择 超过 20 成员 继续 添加 成员 点击 确认 按钮 导致系统 未 给出 提示 进入 创建 群组 页面 数据 超载 系统 性能 无意 创建 包含 大量 成员 群组 超出 系统 处理 能力</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>10010000008784</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="C31" t="n">
+        <v>4</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>【预置条件】
 用户已登录，该群组已添加较多群成员
@@ -974,7 +1264,7 @@
 添加失败，提示“此用户已经在群组”</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t xml:space="preserve">
  登录 群组 添加 较多群 成员 
@@ -988,31 +1278,49 @@
  添加 失败 提示 群组</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>10010000009130</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>添加成员时要求最多只能20个，而当超过20个时不提醒，而且点击确定仍可以进入创建群组页面。</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>添加 成员 要求 只能 20 超过 20 提醒 点击 确定 进入 创建 群组 页面</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>10010000008641</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="C33" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>问题描述：
 1. 重现步骤：用户首先使用手机号登录，然后尝试发起群聊并添加65个成员。在输入昵称后点击确定，但系统没有给出任何反应或提示。
@@ -1023,7 +1331,7 @@
 - 系统在用户点击确定按钮后没有任何反应或反馈，与期望的结果不符。</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t xml:space="preserve">
  .   重现 手机号 登录 发起 群聊 添加 65 成员 输入 昵称 点击 确定 系统 没有 给出 反应 提示 
@@ -1034,422 +1342,647 @@
  -   系统 点击 确定 按钮 没有 反应 反馈 期望 不符</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>10010000009120</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="C34" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>添加成员一次最多 20 个人，但是却可以选择超过20以上</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>添加 成员 一次   20   个人 选择 超过 20</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>10010000009900</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="C35" t="n">
+        <v>4</v>
+      </c>
+      <c r="D35" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>在创建群组的过程中，系统反馈了一个不明确的错误消息：“您请求的数据超过系统限制”，这让用户感到困惑。这条信息没有提供足够的细节来明确指示错误发生的具体位置或原因，导致用户无法理解问题出在哪里。</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>创建 群组 过程 系统 反馈 明确 错误 消息 请求 数据 超过 系统 限制 感到 困惑 条 信息 没有 提供 足够 细节 明确 指示 错误 发生 具体位置 原因 无法 理解 出</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>10010000009344</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="C36" t="n">
+        <v>4</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>在创建群聊功能中，用户在选择欲添加进群聊的用户时，系统设置每次最多可添加20个用户。然而，当用户已经选择了20个用户并继续选择时，系统并未明确提示已超过限制。在用户点击确认并尝试添加超过20个用户时，系统仅弹出提示“选择的用户数量超过了系统的限制”，但未告知具体的限制数值，导致用户无法了解系统的确切限制。这种设计使得用户体验度降低，因为用户无法准确知道一次操作可以添加多少个用户。</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>创建 群聊 选择 欲 添加 进 群聊 系统 设置 每次 最多 添加 20 选择 20 继续 选择 系统 并未 明确 提示 超过 限制 点击 确认 添加 超过 20 系统 仅弹 出 提示 选择 用户数量 超过 系统 限制 未 告知 具体 限制 数值 无法 了解 系统 确切 限制 设计 度 降低 无法 准确 知道 一次 添加</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>10010000009454</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="C37" t="n">
+        <v>4</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5</v>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>新建群邀请好友，添加成员一次最多邀请20人。</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>新建 群 邀请 好友 添加 成员 一次 邀请 20</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>10010000009304</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="C38" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>在软件的用户管理界面中，用户尝试添加成员到群组时，系统允许一次选择超过20个用户。然而，当用户点击确认创建群组的按钮后，系统才会显示一个提示信息，告知用户请求的数据超出了系统的默认限制。这个bug可能会导致用户在创建新群组时遇到问题，因为他们可能不会立即意识到系统的限制。</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>软件 管理 界面 添加 成员 群组 系统 允许 一次 选择 超过 20 点击 确认 创建 群组 按钮 系统 提示信息 告知 请求 数据 超出 系统 默认 限制 创建 新 群组 遇到 不会 立即 意识 系统 限制</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>10010000009611</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="C39" t="n">
+        <v>4</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>建群时，勾选成员超过限制数20个而未提醒。</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>建群 勾选 成员 超过 限制 数 20 未 提醒</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>功能不完整</t>
-        </is>
-      </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" t="n">
+        <v>10010000008197</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>性能</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>3</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>该软件在用户试图创建群组并一次性添加超过20个联系人时出现了系统限制错误。当用户点击“创建群组”后，程序进入选择联系人界面，但当尝试添加的成员数量超过20时，系统显示了一个提示信息，告知“请求的数据超过系统限制”。这可能表明软件在处理大量数据时存在性能瓶颈或资源分配问题。</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>试图 创建 群组 一次性 添加 超过 20 联系人 出现 系统 限制 错误 点击 创建 群组 程序 进入 选择 联系人 界面 添加 成员 数量 超过 20 系统 提示信息 告知 请求 数据 超过 系统 限制 表明 软件 处理 大量 数据 性能 瓶颈 资源分配</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10010000008238</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="C41" t="n">
+        <v>3</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" t="inlineStr">
         <is>
           <t>该软件在用户试图创建群组并选择达到500人的群组成员时，出现了系统错误。当尝试添加超过系统限制的联系人数量时，界面会显示一个错误消息，提示“请求的数据超过系统限制”。这可能表明软件在处理大量数据或并发请求时存在性能问题，或者其后端服务和数据库配置不足以支持如此大量的操作。</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>试图 创建 群组 选择 达到 500 群 组成员 出现 系统 错误 添加 超过 系统 限制 联系人 数量 界面 错误 消息 提示 请求 数据 超过 系统 限制 表明 软件 处理 大量 数据 并发 请求 性能 其后 端 服务 数据库 配置 不足以 支持 大量</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>性能</t>
-        </is>
-      </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" t="n">
+        <v>10010000008902</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>页面布局缺陷</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>3</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" t="inlineStr">
         <is>
           <t>在添加成员的时候，一次只能添加20个人员。当我们在添加成员页面选择添加成员的时候我们能点击21个成员，在最后创建群组的时候才说一次不可以添加超过20个人员，若果修改还要返回，很麻烦，应该在添加成员时不能添加第21个人员。</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>添加 成员 一次 只能 添加 20 人员 添加 成员 页面 选择 添加 成员 点击 21 成员 最后 创建 群组 说 一次 添加 超过 20 人员 修改 返回 麻烦 应该 添加 成员 不能 添加 21 人员</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>页面布局缺陷</t>
-        </is>
-      </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" t="n">
+        <v>10010000008109</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D43" t="n">
+        <v>5</v>
+      </c>
+      <c r="E43" t="inlineStr">
         <is>
           <t>该Bug描述的问题是，在用户尝试将超过20名成员添加到群组时，系统会正确地提醒用户请求的数据超过了设定的限制。然而，这个提示并没有阻止用户继续添加更多的成员到群组中。当用户点击“确定”后，系统会立即弹出一个警告，告知用户请求的数据已超过限制。这导致用户必须返回到之前的界面去修改成员数量，从而给用户带来了不必要的麻烦和不便。</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Bug 超过 20 名 成员 添加 群组 系统 正确 提醒 请求 数据 超过 设定 限制 提示 没有 阻止 继续 添加 更 成员 群组 点击 确定 系统 立即 弹 出 警告 告知 请求 数据 超过 限制 必须 返回 之前 界面 修改 成员 数量 带来 不必要 麻烦 不便</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>10010000009140</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" t="inlineStr">
         <is>
           <t>创建群组人数超过20人后，系统提示信息不够明确。当前提示为“你请求的数据超过系统限制”，应改为“您所邀请的人数超过20人，已经超过限制”以提供更明确的信息指引。</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>创建 群组 人数 超过 20 人后 系统 提示信息 不够 明确 当前 提示 请求 数据 超过 系统 限制 应 改为 邀请 人数 超过 20 超过 限制 提供 更 明确 信息 指引</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>10010000008979</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="C45" t="n">
+        <v>3</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5</v>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>该软件在尝试添加超过20个群成员时，系统提示为“您请求的数据超过系统限制”。这个提示不够明确，因为用户可能不清楚是添加的单个用户数量超过了限制，还是总的用户数量。建议软件开发商对提示进行修改，提供更具体的错误信息，以便用户更好地理解问题所在。</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>添加 超过 20 个群 成员 系统 提示 请求 数据 超过 系统 限制 提示 不够 明确 清楚 添加 单个 用户数量 超过 限制 总 用户数量 建议 软件 开发商 提示 进行 修改 提供 更 具体 错误信息 更好 理解 问题所在</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>10010000008260</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="C46" t="n">
+        <v>4</v>
+      </c>
+      <c r="D46" t="n">
+        <v>5</v>
+      </c>
+      <c r="E46" t="inlineStr">
         <is>
           <t>在尝试添加群成员的过程中，当选择的人数超过20人时，系统并没有立即发出超限的提示。相反，只有在用户开始输入群名称时，系统才显示“超过群限制”的警告。这可能导致用户在人数选择阶段产生误解，误以为可以随意增加群成员数量而不受限制。</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>添加 群 成员 过程 选择 人数 超过 20 人时 系统 没有 立即 发出 超限 提示 相反 输入 群 名称 系统 超过 群 限制 警告 人数 选择 阶段 产生误解 误以为 随意 增加 群 成员 数量 受限制</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>10010000008406</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="C47" t="n">
+        <v>3</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5</v>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>根据您提供的信息和图片，这个软件界面在尝试创建一个群组时遇到了问题。用户打开朋友窗口，并按照步骤试图创建一个新的群聊。在添加22位好友到新群聊后，用户尝试设置群名称，但系统提示“您请求的数据超过系统限制”。这表示当用户尝试添加超过系统设定的好友数量上限时，系统未能正确显示预期的错误信息，而是提供了一个不清晰的错误提示。</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>提供 信息 图片 软件 界面 创建 群组 遇到 打开 朋友 窗口 试图 创建 新 群聊 添加 22 位 好友 新 群聊 设置 群 名称 系统 提示 请求 数据 超过 系统 限制 表示 添加 超过 系统 设定 好友 数量 上限 系统 未能 正确 预期 错误信息 提供 清晰 错误 提示</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>10010000007953</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="inlineStr">
         <is>
           <t>该软件在用户界面的设计中存在一个明显的用户体验问题。当用户尝试邀请好友加入群聊时，系统允许一次最多选择20个好友，但当用户试图选择超过这个数量的好友时，系统并不会立即给予反馈，而是在用户确认后才会告知不能选择多于20个好友。这种设计导致新用户在第一次使用时可能会浪费时间在选择好友上，因为他们可能不知道可以一次选择的最大数量限制。为了提高用户体验，建议在用户开始选择好友前就明确告知一次选择的最大数量，并在超过这个数量时禁止继续选择，这样可以防止用户白费功夫并节省他们的时间。</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>用户界面 设计 明显 邀请 好友 加入 群聊 系统 允许 一次 选择 20 好友 试图 选择 超过 数量 好友 系统 不会 立即 给予 反馈 确认 告知 不能 选择 多于 20 好友 设计 新 第一次 浪费时间 选择 好友 知道 一次 选择 最大 数量 限制 提高 建议 选择 好友 前 明确 告知 一次 选择 最大 数量 超过 数量 禁止 继续 选择 防止 白费 功夫 节省 时间</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>10010000008570</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="C49" t="n">
+        <v>3</v>
+      </c>
+      <c r="D49" t="n">
+        <v>5</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>该软件在用户尝试创建群组并添加好友时，存在一个关键性的问题。具体来说，当用户尝试添加的好友数量超过系统设定的限制时，软件并未在添加好友的过程中提供任何形式的提示或警告。相反，这个提示只在用户确认创建群组后才出现，而且这个提示的信息并不明确，无法为用户提供足够的信息来理解发生了什么。这可能会导致用户感到困惑，不知道他们的操作是否成功，或者他们是否需要采取进一步的行动。</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>创建 群组 添加 好友 关键性 具体来说 添加 好友 数量 超过 系统 设定 限制 软件 并未 添加 好友 过程 提供 形式 提示 警告 相反 提示 确认 创建 群组 出现 提示 信息 明确 无法 提供 足够 信息 理解 发生 感到 困惑 知道 是否 成功 是否 采取 进一步 行动</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>10010000008325</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5</v>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>群主选择加群时虽然系统默认一次只能拉入20人，但是在选择时数量却可以选择超过20人，如下图所示，确认旁边的按钮已经是“21”人了。</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>群主 选择 加群 系统 默认 一次 只能 拉入 20 选择 数量 选择 超过 20 图 所示 确认 旁边 按钮 21</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>10010000008191</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="C51" t="n">
+        <v>3</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E51" t="inlineStr">
         <is>
           <t>在用户界面中，当搜索并添加成员后，触控键盘没有正确收回。此外，候选成员的显示数量被限制为最多4个，这可能阻碍了用户的输入体验。</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>用户界面 搜索 添加 成员 触控 键盘 没有 正确 收回 候选 成员 数量 限制 阻碍 输入</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>10010000008115</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="C52" t="n">
+        <v>3</v>
+      </c>
+      <c r="D52" t="n">
+        <v>5</v>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>添加群成员没有全选按钮。</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>添加 群 成员 没有 全选 按钮</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>10010000008449</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="C53" t="n">
+        <v>3</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>该软件在创建群组时存在明显的用户体验问题。当用户选择超过20个成员时，系统只在完成群组创建后才提示有限制，且未明确说明具体的限制内容。这种设计导致用户在创建过程中可能感到困惑和挫败，因为他们不知道到底哪里出了问题或需要做什么修改。为了提高用户体验，建议在用户选择超过20人时即时提示超过上限的信息，并明确告知用户具体的限制是什么，以便他们可以及时调整。</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>创建 群组 明显 选择 超过 20 成员 系统 完成 群组 创建 提示 限制 未 明确 说明 具体 限制 内容 设计 创建 过程 感到 困惑 挫败 知道 到底 出 做 修改 提高 建议 选择 超过 20 人时 即时 提示 超过 上限 信息 明确 告知 具体 限制 及时 调整</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>10010000008171</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="C54" t="n">
+        <v>4</v>
+      </c>
+      <c r="D54" t="n">
+        <v>5</v>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>该软件在用户尝试创建群聊时存在一个明显的bug。用户在选择21个联系人准备建群时，系统并未给出提示，告知用户一次最多只能添加20个联系人。当用户输入群组名称并准备完成建群操作时，系统却突然提示“您请求的数据超过系统限制”，这明显是一个误导用户的反馈，因为它没有在用户选择联系人时就明确告知限制。这样的用户体验显然是负面的，会给用户带来困惑和不满。特别是当用户在没有任何警告的情况下被告知无法完成操作，这种突如其来的挫败感可能会让用户感到被欺骗。为了提升用户体验，建议开发者在用户选择超过20个联系人时，立即给予反馈，告知用户已达到上限，并建议用户重新选择或分批添加联系人。这样可以避免用户在最后一刻遇到困扰，从而提高用户满意度。</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>创建 群聊 明显 选择 21 联系人 准备 建群 系统 并未 给出 提示 告知 一次 只能 添加 20 联系人 输入 群组 名称 准备 完成 建群 系统 突然 提示 请求 数据 超过 系统 限制 明显 误导 反馈 没有 选择 联系人 明确 告知 限制 显然 负面 带来 困惑 不满 特别 没有 警告 情况 告知 无法 完成 突如其来 挫败 感 感到 欺骗 提升 建议 开发者 选择 超过 20 联系人 立即 给予 反馈 告知 达到 上限 建议 重新 选择 分批 添加 联系人 避免 最后 一刻 遇到 困扰 提高 满意度</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>10010000008083</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="C55" t="n">
+        <v>4</v>
+      </c>
+      <c r="D55" t="n">
+        <v>5</v>
+      </c>
+      <c r="E55" t="inlineStr">
         <is>
           <t>该软件界面显示群成员上限为20人，但用户可以通过勾选超过20人的选项来增加人数。这种设计导致用户在尝试添加更多成员时可能会感到困惑和挫败，因为它与实际的群成员上限不符，违反了直观的操作逻辑。</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>界面显示 群 成员 上限 20 勾选 超过 20 选项 增加 人数 设计 添加 更 成员 感到 困惑 挫败 群 成员 上限 不符 违反 直观 逻辑</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>10010000008972</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="C56" t="n">
+        <v>3</v>
+      </c>
+      <c r="D56" t="n">
+        <v>5</v>
+      </c>
+      <c r="E56" t="inlineStr">
         <is>
           <t>新建群-添加成员，一次添加用户超过20人时没有相应非法提示</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>新建 群 - 添加 成员 一次 添加 超过 20 人时 没有 相应 非法 提示</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>10010000008178</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="C57" t="n">
+        <v>4</v>
+      </c>
+      <c r="D57" t="n">
+        <v>5</v>
+      </c>
+      <c r="E57" t="inlineStr">
         <is>
           <t>在尝试添加成员到群聊时，当选择的人数超过20人后，系统并未及时给出人数超限的提示。用户需要等到输入群名称时才被告知人数超过了20人的上限限制。</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>添加 成员 群聊 选择 人数 超过 20 人后 系统 并未 及时 给出 人数 超限 提示 输入 群 名称 时才 告知 人数 超过 20 上限 限制</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>10010000008308</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="C58" t="n">
+        <v>3</v>
+      </c>
+      <c r="D58" t="n">
+        <v>5</v>
+      </c>
+      <c r="E58" t="inlineStr">
         <is>
           <t>前提条件:发起群聊后添加成员
 复现步骤:
@@ -1458,7 +1991,7 @@
 预期结果:在勾选超过20名成员后，确定按钮变为不可点击状态</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>前提条件 : 发起 群聊 添加 成员 
  复现 : 
@@ -1467,266 +2000,396 @@
  预期 : 勾选 超过 20 名 成员 确定 按钮 变为 不可 点击 状态</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>10010000009175</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="C59" t="n">
+        <v>3</v>
+      </c>
+      <c r="D59" t="n">
+        <v>5</v>
+      </c>
+      <c r="E59" t="inlineStr">
         <is>
           <t>创建群组时，在勾选好友页面，当勾选的好友数抄错20时，点击确定按钮，仍可以跳转到群组设置页面，点击【确定】按钮才提示“数据超过限制”。
 建议：在勾选用户的时候，当勾选的用户数超过20时就提示勾选“”的用户超过限制，不必等到提交群信息时才提醒</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>创建 群组 勾选 好友 页面 当勾选 好友 数抄错 20 点击 确定 按钮 跳转 群组 设置 页面 点击 确定 按钮 提示 数据 超过 限制 
  建议 勾选 当勾选 用户数 超过 20 提示 勾选 超过 限制 不必 提交 群 信息 时才 提醒</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>10010000008379</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="C60" t="n">
+        <v>3</v>
+      </c>
+      <c r="D60" t="n">
+        <v>5</v>
+      </c>
+      <c r="E60" t="inlineStr">
         <is>
           <t>在执行新建群的第二步时，用户在选择联系人进行添加时遇到了问题。根据需求文档的规定，一次最多只能添加20个人。然而，在实际操作中，当尝试添加超过这个数量的人时，系统并没有给出任何超出人数的警告或提示。相反，直到用户完成所有操作并尝试创建群组时，系统才显示了一个提示，告知用户超出了人数限制。这种情况可能会对用户体验造成负面影响，因为它没有及时反馈给用户关于操作限制的信息，导致用户可能已经完成了一些不希望的操作，从而需要重新进行。</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>执行 新建 群 第二步 选择 联系人 进行 添加 遇到 需求 文档 规定 一次 只能 添加 20 个人 实际操作 添加 超过 数量 人时 系统 没有 给出 超出 人数 警告 提示 相反 完成 创建 群组 系统 提示 告知 超出 人数 限制 情况 造成 负面影响 没有 及时 反馈 限制 信息 完成 希望 重新 进行</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>10010000009717</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="C61" t="n">
+        <v>3</v>
+      </c>
+      <c r="D61" t="n">
+        <v>5</v>
+      </c>
+      <c r="E61" t="inlineStr">
         <is>
           <t>在添加成员是一次只能添加20个成员。但是软件在哪个步骤的时候没有提示，当到了提示的时候，再返回修改麻烦。而且没有提示做多一次20 个成员，不知道要修改成几个。</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>添加 成员 一次 只能 添加 20 成员 软件 没有 提示 当到 提示 返回 修改 麻烦 没有 提示 做 一次 20   成员 知道 修改 成 几个</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>10010000008423</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="C62" t="n">
+        <v>3</v>
+      </c>
+      <c r="D62" t="n">
+        <v>5</v>
+      </c>
+      <c r="E62" t="inlineStr">
         <is>
           <t>该软件在成员管理功能中存在不一致的问题。根据软件设计，一次只能添加20个成员，但在实际查找成员时，系统允许选择多达30人。这种不匹配的操作可能导致用户混淆或误操作，影响软件的用户体验和效率。</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>成员 管理 一致 软件设计 一次 只能 添加 20 成员 查找 成员 系统 允许 选择 多达 30 匹配 混淆 误操作 软件 效率</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>10010000008523</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="C63" t="n">
+        <v>3</v>
+      </c>
+      <c r="D63" t="n">
+        <v>5</v>
+      </c>
+      <c r="E63" t="inlineStr">
         <is>
           <t>问题描述：在进行新建群组的过程中，当用户选择的联系人数量超过20人时，系统并没有立即给予用户反馈，告知其已超出20人的上限。直到用户尝试创建群组时，系统才提示“数据超出20”。这样的设计导致用户体验不佳，因为用户在添加了过多的联系人后才发现无法创建群组。为了提高用户体验，应该在用户选择的联系人数量达到或超过20人时，提前给予用户提示，告知其已经超出了上限。</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>进行 新建 群组 过程 选择 联系人 数量 超过 20 人时 系统 没有 立即 给予 反馈 告知 超出 20 上限 创建 群组 系统 提示 数据 超出 20 设计 不佳 添加 联系人 发现 无法 创建 群组 提高 应该 选择 联系人 数量 达到 超过 20 人时 提前 给予 提示 告知 超出 上限</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>10010000008615</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="C64" t="n">
+        <v>3</v>
+      </c>
+      <c r="D64" t="n">
+        <v>5</v>
+      </c>
+      <c r="E64" t="inlineStr">
         <is>
           <t>创建群聊，群成员人数达到上限，因限制了一次性最多添加的成员人数是20，如果我加入的人数是21，只有修改群名称之后，才提示我超出人数限制。建议：当我添加的人数超出范围时，就提示！</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>创建 群聊 群 成员 人数 达到 上限 限制 一次性 添加 成员 人数 20 加入 人数 21 修改 群 名称 之后 提示 超出 人数 限制 建议 添加 人数 超出范围 提示</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>10010000009423</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="C65" t="n">
+        <v>3</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5</v>
+      </c>
+      <c r="E65" t="inlineStr">
         <is>
           <t>添加成员限定20人，但可以选中20以上的用户，而在后续完成过程中显示超过限定人数警告。</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>添加 成员 限定 20 选中 20 后续 完成 过程 超过 限定 人数 警告</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>10010000008653</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="C66" t="n">
+        <v>3</v>
+      </c>
+      <c r="D66" t="n">
+        <v>5</v>
+      </c>
+      <c r="E66" t="inlineStr">
         <is>
           <t>在创建群的过程中，用户在第一次选择群成员时没有收到任何关于只能选择20人的提示。尽管系统允许用户继续选择更多的群成员，但在尝试完成群组创建时，系统才在页面下方显示错误信息，提示数据超出限制。这可能导致用户混淆，不知道何时应该停止添加成员，以及为什么会在最后阶段出现错误。</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>创建 群 过程 第一次 选择 群 成员 没有 收到 只能 选择 20 提示 系统 允许 继续 选择 更 群 成员 完成 群组 创建 系统 页面 下方 错误信息 提示 数据 超出 限制 混淆 知道 应该 停止 添加 成员 最后 阶段 出现 错误</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>10010000009443</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="C67" t="n">
+        <v>3</v>
+      </c>
+      <c r="D67" t="n">
+        <v>5</v>
+      </c>
+      <c r="E67" t="inlineStr">
         <is>
           <t>该问题描述了一个软件界面的bug，具体如下：当用户在创建群组时，如果勾选的好友人数超过了20人，系统应该阻止用户进入下一步操作。但在实际测试中，即使勾选的好友人数超过限制，用户仍然可以继续进行到填写群名称和设置加群限制的步骤。只有在用户完成这些操作并点击确认后，系统才会显示“请求数据超过限制”的错误提示。这显然违背了正常的操作流程和预期的用户交互，可能导致用户混淆和不便。</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>软件 界面 具体 创建 群组 勾选 好友 人数 超过 20 系统 应该 阻止 进入 一步 勾选 好友 人数 超过 限制 仍然 继续 进行 填写 群 名称 设置 加群 限制 完成 点击 确认 系统 请求 数据 超过 限制 错误 提示 显然 违背 正常 预期 交互 混淆 不便</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>10010000008738</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="C68" t="n">
+        <v>3</v>
+      </c>
+      <c r="D68" t="n">
+        <v>5</v>
+      </c>
+      <c r="E68" t="inlineStr">
         <is>
           <t>该问题描述了一个软件界面的bug。在创建群聊的过程中，当用户选择超过20个好友时，确认按钮并未被禁用或置灰，导致用户可以继续操作。然而，当用户填写完群名称后，系统并没有立即显示“数据超过系统限制”的提示信息。相反，直到用户填写了群名称之后，系统才显示此警告。这可能导致用户在不知情的情况下超过了系统的群组数量限制。此外，如果用户没有填写任何群名称，系统错误地显示了“群名不能为空”的错误信息。这个bug可能会导致用户混淆何时以及如何接收到系统的限制提示，增加了用户的困惑和操作上的困扰。</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>软件 界面 创建 群聊 过程 选择 超过 20 好友 确认 按钮 并未 禁用 或置 灰 继续 填写 完群 名称 系统 没有 立即 数据 超过 系统 限制 提示信息 相反 填写 群 名称 之后 系统 警告 不知情 情况 超过 系统 群组 数量 限制 没有 填写 群 名称 系统 错误 群名 不能 为空 错误信息 混淆 接收 系统 限制 提示 增加 困惑 困扰</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>10010000008914</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="C69" t="n">
+        <v>3</v>
+      </c>
+      <c r="D69" t="n">
+        <v>5</v>
+      </c>
+      <c r="E69" t="inlineStr">
         <is>
           <t>执行3之后才提示超过人数限制。导致用户填写的信息作废。建议在执行2之后就提示。可避免不必要的操作。</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>执行 之后 提示 超过 人数 限制 填写 信息 作废 建议 执行 之后 提示 避免 不必要</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>10010000009018</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="C70" t="n">
+        <v>3</v>
+      </c>
+      <c r="D70" t="n">
+        <v>5</v>
+      </c>
+      <c r="E70" t="inlineStr">
         <is>
           <t>在发起群聊并尝试添加成员后，当输入关键字搜索并选择成员时，系统并未提供最多只能选择二十个成员的提示。即使已经选择了超过二十个成员，用户仍然可以继续选择其他成员。这种设计导致用户体验不佳，因为在达到某个数量后，应该有一个明确的限制或提示来指导用户操作。</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>发起 群聊 添加 成员 输入 关键字 搜索 选择 成员 系统 并未 提供 只能 选择 二十个 成员 提示 选择 超过 二十个 成员 仍然 继续 选择 成员 设计 不佳 达到 数量 应该 明确 限制 提示 指导</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>10010000009986</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="C71" t="n">
+        <v>3</v>
+      </c>
+      <c r="D71" t="n">
+        <v>5</v>
+      </c>
+      <c r="E71" t="inlineStr">
         <is>
           <t>这个软件的界面在用户尝试创建群组时，当输入超过20个联系人后，系统并没有明确地指出上限是20人，而是简单地提示“请求的数据超过系统限制”。这可能会导致用户误解系统的限制，并可能感到困惑或失望。这种设计可能会影响用户体验，因为它没有提供足够的信息来指导用户如何正确地操作。</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>软件 界面 创建 群组 输入 超过 20 联系人 系统 没有 明确 指出 上限 20 简单 提示 请求 数据 超过 系统 限制 误解 系统 限制 感到 困惑 失望 设计 没有 提供 足够 信息 指导 正确</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>10010000009211</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="C72" t="n">
+        <v>4</v>
+      </c>
+      <c r="D72" t="n">
+        <v>5</v>
+      </c>
+      <c r="E72" t="inlineStr">
         <is>
           <t>该软件在执行群组创建过程中存在一个关键性的错误。当用户尝试将群组人数设置为超过20人时，系统未能及时阻止这一操作，导致用户可以继续添加成员，即使已经超出了允许的最大人数。直到用户试图完成创建过程并点击“完成”时，系统才给出错误提示。这表明在用户界面的交互设计上存在问题，没有为用户提供适当的反馈或警告，以告知他们所进行的操作可能会导致错误或问题。此bug可能会对用户体验造成负面影响，并可能导致数据存储和处理方面的潜在问题。</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>执行 群组 创建 过程 关键性 错误 群组 人数 设置 超过 20 人时 系统 未能 及时 阻止 这一 继续 添加 成员 超出 允许 最大 人数 试图 完成 创建 过程 点击 完成 系统 给出 错误 提示 表明 用户界面 交互 设计 没有 提供 适当 反馈 警告 告知 进行 错误 造成 负面影响 数据 存储 处理 方面 潜在</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>10010000009291</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="C73" t="n">
+        <v>3</v>
+      </c>
+      <c r="D73" t="n">
+        <v>5</v>
+      </c>
+      <c r="E73" t="inlineStr">
         <is>
           <t>在建立群聊的过程中，当尝试添加多个成员时，用户必须单独选择每个成员，而不能一次性选择所有要添加的成员。这种设计限制了用户的操作效率，使得添加群成员的过程变得繁琐和耗时，对用户体验产生了负面影响。</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>建立 群聊 过程 添加 多个 成员 必须 单独 选择 每个 成员 不能 一次性 选择 添加 成员 设计 限制 效率 添加 群 成员 过程 变得 繁琐 耗时 产生 负面影响</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>用户体验</t>
         </is>
       </c>
     </row>
